--- a/project/uploads/93/split_output/21落料模设计标准.xlsx
+++ b/project/uploads/93/split_output/21落料模设计标准.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51B54C8-6737-4450-9833-DE682750FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE766DDB-0CCF-4457-85E4-432193DCA9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{17743920-3EF5-492E-9C4F-1CD0ADB5AFDA}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{D720E1D1-F9F7-4CFB-BD1B-724659A30EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="21落料模设计标准" sheetId="1" r:id="rId1"/>
@@ -2669,7 +2669,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 123" xfId="2" xr:uid="{53792A3E-18B5-4358-90BA-E2A284BB02FF}"/>
+    <cellStyle name="常规 123" xfId="2" xr:uid="{F5EEA818-939A-4003-81B0-3E7C6CDA841D}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2877,7 +2877,7 @@
         <xdr:cNvPr id="2" name="Picture 8438">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2E602E-7B81-48ED-9018-05DFC8B346FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE309AB-B3C9-4927-AE6F-194FF0536E19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2894,8 +2894,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1322070" y="3680460"/>
-          <a:ext cx="1057275" cy="944881"/>
+          <a:off x="1320800" y="3752850"/>
+          <a:ext cx="1057275" cy="965201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2929,7 +2929,7 @@
         <xdr:cNvPr id="3" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6804A04B-11DD-40E9-8B20-7D5D1F9606C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BA78C-C40B-499B-887F-1D81F55B7B2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,8 +2946,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1369695" y="7237095"/>
-          <a:ext cx="1095375" cy="906781"/>
+          <a:off x="1368425" y="7394575"/>
+          <a:ext cx="1095375" cy="927101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,7 +2981,7 @@
         <xdr:cNvPr id="4" name="Picture 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E907AF-0951-4C57-86FD-6F601E8141AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CBF27E-0D59-4FE9-983F-ED5351CE569A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,8 +2998,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2798445" y="7246620"/>
-          <a:ext cx="1171575" cy="868681"/>
+          <a:off x="2797175" y="7404100"/>
+          <a:ext cx="1171575" cy="889001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3033,7 +3033,7 @@
         <xdr:cNvPr id="5" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BCA218-27B6-4005-B3BD-EA43E6FC3877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F9DD20-EDB3-44D4-B5AF-88E7B52EFEBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,8 +3050,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4160520" y="7265670"/>
-          <a:ext cx="1123950" cy="878206"/>
+          <a:off x="4159250" y="7423150"/>
+          <a:ext cx="1123950" cy="898526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3085,7 +3085,7 @@
         <xdr:cNvPr id="6" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E27E0D-3B0F-4ADD-A7BA-9EED126DCE22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2947D83C-627F-413B-AE1D-C6A28579F085}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,8 +3102,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5436870" y="7294245"/>
-          <a:ext cx="1171575" cy="830581"/>
+          <a:off x="5435600" y="7451725"/>
+          <a:ext cx="1171575" cy="850901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3137,7 +3137,7 @@
         <xdr:cNvPr id="7" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C30922C-E648-48ED-A88A-B32FB59E57CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0184DA-3A5E-4D39-8DB9-DC461BE5646D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,8 +3154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1474470" y="8698230"/>
-          <a:ext cx="923925" cy="887730"/>
+          <a:off x="1473200" y="8890000"/>
+          <a:ext cx="923925" cy="908050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3189,7 +3189,7 @@
         <xdr:cNvPr id="8" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D614C451-B67C-4D3C-9DE9-5A80AA2FEA9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7252852A-EC1B-4AF5-BFDC-9BA2D5487B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,8 +3206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3084195" y="8698230"/>
-          <a:ext cx="952500" cy="887730"/>
+          <a:off x="3082925" y="8890000"/>
+          <a:ext cx="952500" cy="908050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3241,7 +3241,7 @@
         <xdr:cNvPr id="9" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22947A38-8600-477F-9BC5-942DDED6E5C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BABFBE-0D1B-49FF-B6F8-F8A6454845A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,8 +3258,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789170" y="8774430"/>
-          <a:ext cx="876300" cy="840105"/>
+          <a:off x="4787900" y="8966200"/>
+          <a:ext cx="876300" cy="860425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3293,7 +3293,7 @@
         <xdr:cNvPr id="10" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1FC6F0-00C6-47BD-AB75-982C9D976495}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAC09FB-F630-4EFF-B88A-078E18B18231}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,8 +3310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6122670" y="8774430"/>
-          <a:ext cx="828675" cy="802005"/>
+          <a:off x="6121400" y="8966200"/>
+          <a:ext cx="828675" cy="822325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="11" name="加号 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DFAE1D-BEF4-420D-A64B-BB4D6A4450F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1B44AA-E7C9-4C19-BB0B-FCCC2A4B1BF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,8 +3353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5634779" y="8969287"/>
-          <a:ext cx="497416" cy="502286"/>
+          <a:off x="5633509" y="9166137"/>
+          <a:ext cx="497416" cy="517526"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
           <a:avLst/>
@@ -3401,7 +3401,7 @@
         <xdr:cNvPr id="12" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D317D20-6788-4D8B-9B29-A72687800C5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283E3713-8C22-4ED7-99EE-9566E0E26D66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,8 +3418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3122295" y="10117455"/>
-          <a:ext cx="1257300" cy="1066800"/>
+          <a:off x="3121025" y="10347325"/>
+          <a:ext cx="1257300" cy="1092200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="13" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F483572-0808-46FC-8192-2C0FE4209136}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADCF798-1305-49B5-BA9E-DF8568A31E36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3470,8 +3470,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4608195" y="10136505"/>
-          <a:ext cx="1285875" cy="1009650"/>
+          <a:off x="4606925" y="10366375"/>
+          <a:ext cx="1285875" cy="1035050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3505,7 +3505,7 @@
         <xdr:cNvPr id="14" name="Picture 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D882419-0E9D-41F5-8866-D065A7E023DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01ED1252-1FE5-4AFA-81F3-C5D7BE5F4C4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,8 +3522,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6008370" y="11807190"/>
-          <a:ext cx="1304925" cy="1143000"/>
+          <a:off x="6007100" y="12077700"/>
+          <a:ext cx="1304925" cy="1168400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3557,7 +3557,7 @@
         <xdr:cNvPr id="15" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5F4437-5BEE-4299-8C3A-B97BC0EC394F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED018FA-265C-44CA-B6C4-90CF58B4A985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,8 +3574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1731645" y="15198090"/>
-          <a:ext cx="752475" cy="811530"/>
+          <a:off x="1730375" y="15557500"/>
+          <a:ext cx="752475" cy="831850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3609,7 +3609,7 @@
         <xdr:cNvPr id="16" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8451CEE3-4ED6-4AAD-B5D9-5EAB94068001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D44620-959A-40B9-84F5-8F773F520457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,8 +3626,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5208270" y="15169515"/>
-          <a:ext cx="628650" cy="897255"/>
+          <a:off x="5207000" y="15528925"/>
+          <a:ext cx="628650" cy="917575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3661,7 +3661,7 @@
         <xdr:cNvPr id="17" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C9E78C-2437-4EFB-9CA7-04BB309C1067}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC33463-0D17-4B62-BFD3-ADC8DEFA5B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,8 +3678,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1426845" y="16838295"/>
-          <a:ext cx="1209675" cy="1245871"/>
+          <a:off x="1425575" y="17237075"/>
+          <a:ext cx="1209675" cy="1276351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3713,7 +3713,7 @@
         <xdr:cNvPr id="18" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2292F65-140A-4732-A8FE-42EC9882E3C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1148658C-2F38-49C2-A8AE-BC236CB4C6FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3730,8 +3730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3665220" y="16990695"/>
-          <a:ext cx="1190625" cy="962025"/>
+          <a:off x="3663950" y="17389475"/>
+          <a:ext cx="1190625" cy="987425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3765,7 +3765,7 @@
         <xdr:cNvPr id="19" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D875463-95CA-4C2D-BA1A-5A6F1D1EC7DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55DA855-E776-4220-B52A-42C270CBDE9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3782,8 +3782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5894070" y="16952595"/>
-          <a:ext cx="1209675" cy="914400"/>
+          <a:off x="5892800" y="17351375"/>
+          <a:ext cx="1209675" cy="939800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3809,15 +3809,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="20" name="Picture 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFFC74F-0DDB-4F2B-8330-4B47122571C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F667735-FDB1-4975-9822-C8322FAA44ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,8 +3834,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1350645" y="19307175"/>
-          <a:ext cx="1447800" cy="1160145"/>
+          <a:off x="1349375" y="19770725"/>
+          <a:ext cx="1447800" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3869,7 +3869,7 @@
         <xdr:cNvPr id="21" name="Picture 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A943A6A-C697-4C9B-81E0-6576E005ED93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5814AB-4D9A-4103-8628-D35153D4CBD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3886,8 +3886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3027045" y="19373850"/>
-          <a:ext cx="1724025" cy="1112520"/>
+          <a:off x="3025775" y="19837400"/>
+          <a:ext cx="1724025" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3921,7 +3921,7 @@
         <xdr:cNvPr id="22" name="Picture 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86050758-EE67-4AA7-A634-444F4E464809}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA808256-4281-495C-97C3-D3A79800B4AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3938,8 +3938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960620" y="19383375"/>
-          <a:ext cx="1914525" cy="1076326"/>
+          <a:off x="4959350" y="19846925"/>
+          <a:ext cx="1914525" cy="1101726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3973,7 +3973,7 @@
         <xdr:cNvPr id="23" name="Picture 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD68FEA-5D25-489D-B038-A0F088404C25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A3A566-0440-4A2A-A86B-122416300361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3990,8 +3990,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1379220" y="22570440"/>
-          <a:ext cx="3457575" cy="1520191"/>
+          <a:off x="1377950" y="23114000"/>
+          <a:ext cx="3457575" cy="1555751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4025,7 +4025,7 @@
         <xdr:cNvPr id="24" name="矩形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CD26D8-C386-4195-86DA-EC046FCE08B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936ABAB0-2E93-4E7C-81FC-26C26536AE3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4033,8 +4033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4789170" y="23362920"/>
-          <a:ext cx="381000" cy="501015"/>
+          <a:off x="4787900" y="23926800"/>
+          <a:ext cx="381000" cy="511175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4084,7 +4084,7 @@
         <xdr:cNvPr id="25" name="Group 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA646F91-87C7-4D59-AEB9-D4EA0C8BE6E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DEA585-36F4-4BE6-BB37-01907DE44314}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,8 +4092,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1427508" y="25201493"/>
-          <a:ext cx="4152900" cy="1580736"/>
+          <a:off x="1426403" y="25848641"/>
+          <a:ext cx="4152900" cy="1624910"/>
           <a:chOff x="166" y="800"/>
           <a:chExt cx="463" cy="151"/>
         </a:xfrm>
@@ -4103,7 +4103,7 @@
           <xdr:cNvPr id="26" name="Picture 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5C510A-AD6A-36DF-D16C-BAD01AED4BCA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0853C6F3-9C55-8DD3-5590-0489F085A4D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4140,7 +4140,7 @@
           <xdr:cNvPr id="27" name="Text Box 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055A23F9-75AD-02B9-6AC6-0FAEABBEF37F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C58ADE-83C6-51F9-16FB-6CAD582E8A87}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4204,7 +4204,7 @@
         <xdr:cNvPr id="28" name="Text Box 733">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB24126-6130-461E-B229-F073A4656EF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC583D8-EB3F-41E0-A75F-57CCEC619FE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4214,8 +4214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3817620" y="27771090"/>
-          <a:ext cx="219075" cy="264795"/>
+          <a:off x="3816350" y="28441650"/>
+          <a:ext cx="219075" cy="269875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4267,7 +4267,7 @@
         <xdr:cNvPr id="29" name="Text Box 734">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF9E8DC-0572-431B-AD2A-D087A7C370FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B58883-123D-48EF-9B67-C9A0947EFA73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4277,8 +4277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3693795" y="27771090"/>
-          <a:ext cx="228600" cy="217170"/>
+          <a:off x="3692525" y="28441650"/>
+          <a:ext cx="228600" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4330,7 +4330,7 @@
         <xdr:cNvPr id="30" name="Text Box 734">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4961295D-9DD8-4EDA-B96D-71FD648F0176}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A9174F-BBB5-4D26-A900-4642A461C02D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4340,8 +4340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1560195" y="29658945"/>
-          <a:ext cx="228600" cy="217170"/>
+          <a:off x="1558925" y="30375225"/>
+          <a:ext cx="228600" cy="222250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4393,7 +4393,7 @@
         <xdr:cNvPr id="31" name="Text Box 733">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFC646D-6122-4145-A3B6-CE565AD5ABB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F863544-1737-4E27-BBD1-1B12BE3FDDBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4403,8 +4403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1674495" y="29658945"/>
-          <a:ext cx="219075" cy="262890"/>
+          <a:off x="1673225" y="30375225"/>
+          <a:ext cx="219075" cy="273050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4456,7 +4456,7 @@
         <xdr:cNvPr id="32" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56BE6E5-CBC7-4510-9C2F-69721B7247D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E64F14-3345-4D19-A804-A689703F78C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4473,8 +4473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1445964" y="42809935"/>
-          <a:ext cx="5658195" cy="2325116"/>
+          <a:off x="1444694" y="43865305"/>
+          <a:ext cx="5658195" cy="2384806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4509,7 +4509,7 @@
         <xdr:cNvPr id="33" name="直接连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642D6C33-1AC6-4053-AE41-1C8F98872613}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75D346C-065C-48C8-B266-CBC7BB7551C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4519,8 +4519,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="109220" y="3030220"/>
-          <a:ext cx="7628255" cy="13358495"/>
+          <a:off x="109220" y="3083560"/>
+          <a:ext cx="7625715" cy="13695045"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4554,7 +4554,7 @@
         <xdr:cNvPr id="34" name="直接连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59993BF9-EC64-4271-A329-966A64DC6828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5F2B6D-5323-4728-8AD5-C16B38B62BA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4564,8 +4564,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1270" y="3098800"/>
-          <a:ext cx="7310755" cy="12703810"/>
+          <a:off x="1270" y="3155950"/>
+          <a:ext cx="7309485" cy="13021310"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4599,7 +4599,7 @@
         <xdr:cNvPr id="35" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2441CBC0-C8B6-4317-9D04-0793E81A0F6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6F9EF6-2DE3-4153-A022-81FC02E26B1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4616,8 +4616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7835679" y="10559664"/>
-          <a:ext cx="5928691" cy="2258822"/>
+          <a:off x="7833139" y="10799694"/>
+          <a:ext cx="5928691" cy="2314702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4652,7 +4652,7 @@
         <xdr:cNvPr id="36" name="Picture 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F385192-644A-4236-83FB-AC00BCFCFD6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21523581-BA23-41E8-B432-5CC0DBB1A08F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4669,8 +4669,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3087093" y="13324399"/>
-          <a:ext cx="1533525" cy="1076326"/>
+          <a:off x="3085823" y="13634279"/>
+          <a:ext cx="1533525" cy="1101726"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4705,7 +4705,7 @@
         <xdr:cNvPr id="37" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E062111-C7DA-4AF9-909B-266B553A7B2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EB84A6-8F4E-4F26-BFCD-36762BD4B548}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4722,8 +4722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4611094" y="11928944"/>
-          <a:ext cx="1196686" cy="948359"/>
+          <a:off x="4609824" y="12199454"/>
+          <a:ext cx="1196686" cy="973759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4758,7 +4758,7 @@
         <xdr:cNvPr id="38" name="Picture 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB656C48-D2BD-481A-94FD-9EF6D761DB33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D8AB1A-2E9C-4970-A197-AD320480CB98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,8 +4775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1356029" y="10105445"/>
-          <a:ext cx="1590675" cy="1028700"/>
+          <a:off x="1354759" y="10335315"/>
+          <a:ext cx="1590675" cy="1054100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4810,7 +4810,7 @@
         <xdr:cNvPr id="39" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610ED2B6-D05C-4C3D-AE3F-03283F7039CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B749F5E-15F9-4249-AD1C-26D4CA9A7210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4827,8 +4827,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2142876" y="36506094"/>
-          <a:ext cx="3738402" cy="2893033"/>
+          <a:off x="2141606" y="37397634"/>
+          <a:ext cx="3738402" cy="2973043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4863,7 +4863,7 @@
         <xdr:cNvPr id="40" name="Picture 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5170B69-3D6A-4137-BDA4-F7669186C3F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C50C63E-8DF6-47BC-9C9D-261436166764}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,8 +4880,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1596225" y="27174590"/>
-          <a:ext cx="4986130" cy="1465402"/>
+          <a:off x="1594955" y="27829910"/>
+          <a:ext cx="4986130" cy="1500962"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4916,7 +4916,7 @@
         <xdr:cNvPr id="41" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD8CCBB-3E0E-48AF-94D9-60FF225C7F9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FB98F5-0459-4249-9964-6C2AAE6999F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4933,8 +4933,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1414008" y="29150476"/>
-          <a:ext cx="5732876" cy="1444818"/>
+          <a:off x="1412738" y="29856596"/>
+          <a:ext cx="5732876" cy="1480378"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4969,7 +4969,7 @@
         <xdr:cNvPr id="42" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441D93B8-5A15-4E52-A924-D6BBDC619790}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D29F082-2E8B-444F-A0AD-4D9753A58BD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4986,8 +4986,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7719723" y="14744701"/>
-          <a:ext cx="5917096" cy="1683528"/>
+          <a:off x="7717183" y="15093951"/>
+          <a:ext cx="5917096" cy="1724168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5022,7 +5022,7 @@
         <xdr:cNvPr id="43" name="Picture 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B45B65-4A70-4508-83D7-DC9F95BA6872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB39D21-3FF0-4BE0-81E8-E416BE839E68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5039,8 +5039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7785152" y="19246133"/>
-          <a:ext cx="6923849" cy="1460720"/>
+          <a:off x="7782612" y="19704603"/>
+          <a:ext cx="6923849" cy="1501360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5075,7 +5075,7 @@
         <xdr:cNvPr id="44" name="Picture 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E68C17E-E293-4E5A-8619-7E857E1BAFAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B622DCA8-8E2A-4271-B18B-4646603A8E09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5092,8 +5092,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6590637" y="33920017"/>
-          <a:ext cx="7401090" cy="2395413"/>
+          <a:off x="6589367" y="34745517"/>
+          <a:ext cx="7399820" cy="2456373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5128,7 +5128,7 @@
         <xdr:cNvPr id="45" name="Picture 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FF7AB0-3915-44A9-AD29-247210AB1F07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384EE34E-7D0A-4E42-BB3C-BD3750D71444}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5145,8 +5145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7777701" y="25511429"/>
-          <a:ext cx="4391025" cy="274320"/>
+          <a:off x="7775161" y="26126109"/>
+          <a:ext cx="4391025" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5181,7 +5181,7 @@
         <xdr:cNvPr id="46" name="Picture 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5129C9E0-CF0C-48A9-9F8B-7A9884B741EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5292EC4-E5B4-4358-845F-6B4B3D05A021}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5198,8 +5198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1737029" y="39933108"/>
-          <a:ext cx="4305300" cy="2211209"/>
+          <a:off x="1735759" y="40916088"/>
+          <a:ext cx="4305300" cy="2267089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5234,7 +5234,7 @@
         <xdr:cNvPr id="47" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AB53CE-1B46-4764-B9D3-15DEC8BD57E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA490012-C4C6-482E-83EF-E8D7221D03FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5251,8 +5251,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1662485" y="33971286"/>
-          <a:ext cx="4547152" cy="2360051"/>
+          <a:off x="1661215" y="34801866"/>
+          <a:ext cx="4547152" cy="2415931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5287,7 +5287,7 @@
         <xdr:cNvPr id="48" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F828212B-2741-498F-AAAF-388D29F0F774}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DC619A-8101-48D0-862D-254BF9C73EFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5304,8 +5304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1331179" y="31180710"/>
-          <a:ext cx="6293731" cy="2112979"/>
+          <a:off x="1329909" y="31936360"/>
+          <a:ext cx="6293731" cy="2168859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5327,15 +5327,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>731520</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5345,7 +5345,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB319357-D6D3-454D-9572-25F9A460DD72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFDFD0B-CB79-427B-89A7-B899D9E0304A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5390,13 +5390,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2308860</xdr:colOff>
+          <xdr:colOff>2305050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2461260</xdr:colOff>
+          <xdr:colOff>2457450</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5408,7 +5408,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA67C11F-F7EF-4B11-9C63-22E42A466ECB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09128B3-D3D0-4789-ABDE-84C11856F8E6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5453,13 +5453,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>4251960</xdr:colOff>
+          <xdr:colOff>4248150</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>4404360</xdr:colOff>
+          <xdr:colOff>4400550</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -5471,7 +5471,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9BD77BE-D3E4-4B4E-8E77-93B9C2AB2F07}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18CDFD3-2315-4049-AB75-BBEA6898F2FF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5516,15 +5516,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>731520</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5534,7 +5534,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B741D2B5-B28E-4BB1-AFFA-BE13055ABE01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854EFD64-10C0-4196-A8C2-8F111F7A6F31}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5579,13 +5579,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>556260</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>708660</xdr:colOff>
+          <xdr:colOff>704850</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5597,7 +5597,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A54F49A-FC21-4820-A355-23EEA7980E66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33F9185-281C-4C3C-888C-78137CF235BF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5642,15 +5642,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1973580</xdr:colOff>
+          <xdr:colOff>1974850</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2125980</xdr:colOff>
+          <xdr:colOff>2127250</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5660,7 +5660,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444B222F-3A1E-4BB9-B79D-87F1ED68DB23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41653FF-28A7-4E2D-8C71-7B72D1C47151}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5705,13 +5705,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3459480</xdr:colOff>
+          <xdr:colOff>3460750</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3611880</xdr:colOff>
+          <xdr:colOff>3613150</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -5723,7 +5723,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3F19C1-DBD3-40DB-ABFF-0C1D9EBFB558}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB8E263-9347-49F0-A7BB-37BCAB38FEAB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5768,15 +5768,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1973580</xdr:colOff>
+          <xdr:colOff>1974850</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2125980</xdr:colOff>
+          <xdr:colOff>2127250</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5786,7 +5786,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26D481F-F0E4-43F6-94F6-EDA5F03199E4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45912467-B752-4985-86BD-4AA85EF6683B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5831,13 +5831,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>731520</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -5849,7 +5849,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD0CC36-F844-4BE4-A187-5F0B63640FA6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241247CE-CBF6-4F70-884F-71634A3F14FF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5894,15 +5894,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2011680</xdr:colOff>
+          <xdr:colOff>2012950</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2164080</xdr:colOff>
+          <xdr:colOff>2165350</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5912,7 +5912,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A816CE-AFA7-43BE-8737-983FDA3FE4C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794E638E-2425-4ECB-B6FE-76EAB31FA20D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5957,13 +5957,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3398520</xdr:colOff>
+          <xdr:colOff>3403600</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3550920</xdr:colOff>
+          <xdr:colOff>3556000</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -5975,7 +5975,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0E34BA-3D96-4CCD-9765-DFE2D6DE57F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D755575-FCED-4397-B2F7-621B4B7301D5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6020,13 +6020,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>4747260</xdr:colOff>
+          <xdr:colOff>4743450</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>4899660</xdr:colOff>
+          <xdr:colOff>4895850</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6038,7 +6038,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C74F57F-9DAB-41D9-8A9E-67C2D7D99F64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DA1F79-D8D2-439E-83DC-2255062632CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6085,7 +6085,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -6101,7 +6101,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13AF0B04-5B5D-4A7C-8633-1186BFAE7682}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78400770-D155-41B3-A108-5F2382CD5397}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6146,15 +6146,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3055620</xdr:colOff>
+          <xdr:colOff>3060700</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3208020</xdr:colOff>
+          <xdr:colOff>3213100</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6164,7 +6164,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EFADCFF-26A2-4039-BFCA-5CDB2A39A1A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F000382-A3AE-49E1-BC60-F7DE31FB1F66}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6209,15 +6209,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>5608320</xdr:colOff>
+          <xdr:colOff>5613400</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>5760720</xdr:colOff>
+          <xdr:colOff>5765800</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6227,7 +6227,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3281174-D20F-44A0-ABC4-0DF1A5451743}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B397B1-96F8-4C89-BEDD-A8C6813C9775}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6280,7 +6280,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6290,7 +6290,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABF677D-5C17-4DB0-8BE8-C699B9CF73BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4022A86-2B9F-4E0B-838E-005C73EC68D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6337,13 +6337,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>2514600</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>2667000</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6353,7 +6353,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83FCB76-71D8-4B63-A4C6-9FED94913208}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFEF2A5-6A0A-4DF9-BF4F-0EB9BA722C04}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6400,13 +6400,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>3924300</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>4076700</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6416,7 +6416,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D97F2D-1C73-46E3-B0C3-66D5C52BFF6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE3C608-F645-47E5-8244-21356D7F3C6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6461,13 +6461,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>251460</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>403860</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -6479,7 +6479,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6F23AF-5A4F-492C-8915-01EF0B03834C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3B0987-1084-40AC-ABEC-07C3E0C00FDA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6524,15 +6524,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2164080</xdr:colOff>
+          <xdr:colOff>2165350</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2316480</xdr:colOff>
+          <xdr:colOff>2317750</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6542,7 +6542,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EB488A-2732-4A45-8D23-18E6DE0A6750}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64ABF37-356B-4F8A-866A-E5E9FACEF5FB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6589,7 +6589,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -6605,7 +6605,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D1F233-691D-48E8-A2EA-FBFE2288CDE8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6182EB46-515E-4960-9891-6A007A95A11B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6650,15 +6650,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>449580</xdr:colOff>
+          <xdr:colOff>450850</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>601980</xdr:colOff>
+          <xdr:colOff>603250</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6668,7 +6668,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3E01B1-DBD6-4CEF-86BD-9EE6A498EA93}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30375066-7EBE-48FC-8672-C82D9ECC05F5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6721,7 +6721,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>3657600</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6731,7 +6731,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3594F0-B910-4BE8-AF98-86A37F0B1B0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C946043-2974-46CE-94AE-BCB46147E18D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6776,15 +6776,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>426720</xdr:colOff>
+          <xdr:colOff>431800</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6794,7 +6794,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFD6658-2B10-4C6A-9A61-10A440A84ECE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079F98DC-7314-44C1-8073-EFF879F901E3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6839,15 +6839,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2270760</xdr:colOff>
+          <xdr:colOff>2266950</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2423160</xdr:colOff>
+          <xdr:colOff>2419350</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6857,7 +6857,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A70744-8D70-4D02-932E-D0E35238C014}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BD8E7E-22B8-4654-B9E9-C72048FBBEEF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6904,13 +6904,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>4114800</xdr:colOff>
           <xdr:row>107</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>4267200</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6920,7 +6920,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4637D83-7851-43C3-9BBB-CC928F52F89A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF736859-73D2-41AC-8A2C-377E0397ECB1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6965,13 +6965,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1242060</xdr:colOff>
+          <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1394460</xdr:colOff>
+          <xdr:colOff>1390650</xdr:colOff>
           <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6983,7 +6983,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB1ADF8-A884-49C4-845E-5524A8047B79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B32B572-E7B1-4D22-9EA6-6035A3F7759C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7028,15 +7028,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2788920</xdr:colOff>
+          <xdr:colOff>2794000</xdr:colOff>
           <xdr:row>109</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2941320</xdr:colOff>
+          <xdr:colOff>2946400</xdr:colOff>
           <xdr:row>110</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7046,7 +7046,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C4EFB5-D29C-493A-A2D2-6024B3BC85A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B8C091-D8A2-4D2E-8A5E-20D800FFA440}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7091,15 +7091,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1760220</xdr:colOff>
+          <xdr:colOff>1765300</xdr:colOff>
           <xdr:row>110</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1912620</xdr:colOff>
+          <xdr:colOff>1917700</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7109,7 +7109,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939DF514-CC98-4DBA-A339-3D8E4A97E864}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5909CC8-C147-480B-B528-1B037836A53B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7162,7 +7162,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>3467100</xdr:colOff>
           <xdr:row>111</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7172,7 +7172,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF146F7-39E7-4F15-988B-9750CD33B632}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97460392-A981-476F-AACC-641349824121}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7217,15 +7217,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2537460</xdr:colOff>
+          <xdr:colOff>2533650</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2689860</xdr:colOff>
+          <xdr:colOff>2686050</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7235,7 +7235,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BD9DE1-4C02-4BFB-9957-AB450D320015}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEE6CD1-2AA3-4C5A-ABDC-768DB7CF87A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7280,15 +7280,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1242060</xdr:colOff>
+          <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1394460</xdr:colOff>
+          <xdr:colOff>1390650</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7298,7 +7298,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0D105D-963B-4612-942C-7248F393DA4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED16767-83A0-408A-BB2D-9F1FA8E4484D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7343,13 +7343,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>4747260</xdr:colOff>
+          <xdr:colOff>4743450</xdr:colOff>
           <xdr:row>109</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>4899660</xdr:colOff>
+          <xdr:colOff>4895850</xdr:colOff>
           <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7361,7 +7361,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2FEE26-C9E7-4F66-A30B-9DBE2186D24D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAE1601-3AE3-4BD7-B4C0-AC6600365249}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7408,13 +7408,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>876300</xdr:colOff>
           <xdr:row>126</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>127</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7424,7 +7424,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE06E477-52A1-4C51-B5EC-50B825F89CEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7725187D-F53F-4AED-B2AA-A903463E26E2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7471,7 +7471,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>2095500</xdr:colOff>
           <xdr:row>126</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7487,7 +7487,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04C7B02-7911-4261-BF53-A4BCFAF86BBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E5D42C-CBBC-4EC4-B2D9-4D7E76624D4D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7532,13 +7532,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>129</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>365760</xdr:colOff>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>129</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -7550,7 +7550,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E9C8E5-B5FE-4F27-BBB8-B9010186D5B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD359E4A-B297-4298-863B-F0DD6E9EFE73}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7597,7 +7597,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>2133600</xdr:colOff>
           <xdr:row>129</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7613,7 +7613,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA35A6A-8232-412A-9FBB-A43F33B7EB4F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47AA68F2-7D33-4043-8E47-ED2D665B0EBA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7658,13 +7658,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3566160</xdr:colOff>
+          <xdr:colOff>3562350</xdr:colOff>
           <xdr:row>129</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3718560</xdr:colOff>
+          <xdr:colOff>3714750</xdr:colOff>
           <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7676,7 +7676,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E85FBD9-E301-484E-ABDF-110714D5E6F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DED5EB-011B-4021-9F68-E5AF9F3E59CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7721,15 +7721,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>731520</xdr:colOff>
+          <xdr:colOff>736600</xdr:colOff>
           <xdr:row>160</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7739,7 +7739,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C3ED5A-15C3-484B-AA9D-4FEEEEF4A469}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B203B95-FC8B-4936-94BC-35F6B3F7D458}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7786,7 +7786,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>3505200</xdr:colOff>
           <xdr:row>160</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7802,7 +7802,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6761FFDA-499E-454D-846C-BE29D0AA45B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26664BFD-FF21-45E8-A1D9-BF3B54D26D8A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7847,15 +7847,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>2880360</xdr:colOff>
+          <xdr:colOff>2876550</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>3032760</xdr:colOff>
+          <xdr:colOff>3028950</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7865,7 +7865,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EC0919-31F7-4EE3-9E18-E388AC7FBEC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417EF31A-28E8-4D94-8956-38A21D9A318A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7910,15 +7910,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>426720</xdr:colOff>
+          <xdr:colOff>431800</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>584200</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7928,7 +7928,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20468F21-8682-4D42-A0AC-0D8D3DECA909}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9D1830-6A2B-40DF-A80B-6A49897C7108}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7973,15 +7973,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>5090160</xdr:colOff>
+          <xdr:colOff>5086350</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>5242560</xdr:colOff>
+          <xdr:colOff>5238750</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7991,7 +7991,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B86C6BD-2FA4-43EC-B93A-51DA0A65F720}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B403EAA9-9EF4-41D8-963F-07E677D47E36}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8049,7 +8049,7 @@
         <xdr:cNvPr id="49" name="文本框 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEB3B51-2DC6-46C2-9E24-EC09072E0468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5AC633-8721-412D-A68E-259E3C08DBDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8057,8 +8057,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="597535" y="735330"/>
-          <a:ext cx="7520940" cy="2834005"/>
+          <a:off x="597535" y="745490"/>
+          <a:ext cx="7518400" cy="2891155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13706,7 +13706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBADDD9-183D-478D-B399-2D634F5FF8FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362ECECA-671E-4CF5-8989-109E92DC806A}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -13716,203 +13716,203 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="94" style="3" customWidth="1"/>
-    <col min="3" max="256" width="10" style="3"/>
-    <col min="257" max="257" width="18.44140625" style="3" customWidth="1"/>
-    <col min="258" max="258" width="94" style="3" customWidth="1"/>
-    <col min="259" max="512" width="10" style="3"/>
-    <col min="513" max="513" width="18.44140625" style="3" customWidth="1"/>
-    <col min="514" max="514" width="94" style="3" customWidth="1"/>
-    <col min="515" max="768" width="10" style="3"/>
-    <col min="769" max="769" width="18.44140625" style="3" customWidth="1"/>
-    <col min="770" max="770" width="94" style="3" customWidth="1"/>
-    <col min="771" max="1024" width="10" style="3"/>
-    <col min="1025" max="1025" width="18.44140625" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="94" style="3" customWidth="1"/>
-    <col min="1027" max="1280" width="10" style="3"/>
-    <col min="1281" max="1281" width="18.44140625" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="94" style="3" customWidth="1"/>
-    <col min="1283" max="1536" width="10" style="3"/>
-    <col min="1537" max="1537" width="18.44140625" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="94" style="3" customWidth="1"/>
-    <col min="1539" max="1792" width="10" style="3"/>
-    <col min="1793" max="1793" width="18.44140625" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="94" style="3" customWidth="1"/>
-    <col min="1795" max="2048" width="10" style="3"/>
-    <col min="2049" max="2049" width="18.44140625" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="94" style="3" customWidth="1"/>
-    <col min="2051" max="2304" width="10" style="3"/>
-    <col min="2305" max="2305" width="18.44140625" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="94" style="3" customWidth="1"/>
-    <col min="2307" max="2560" width="10" style="3"/>
-    <col min="2561" max="2561" width="18.44140625" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="94" style="3" customWidth="1"/>
-    <col min="2563" max="2816" width="10" style="3"/>
-    <col min="2817" max="2817" width="18.44140625" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="94" style="3" customWidth="1"/>
-    <col min="2819" max="3072" width="10" style="3"/>
-    <col min="3073" max="3073" width="18.44140625" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="94" style="3" customWidth="1"/>
-    <col min="3075" max="3328" width="10" style="3"/>
-    <col min="3329" max="3329" width="18.44140625" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="94" style="3" customWidth="1"/>
-    <col min="3331" max="3584" width="10" style="3"/>
-    <col min="3585" max="3585" width="18.44140625" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="94" style="3" customWidth="1"/>
-    <col min="3587" max="3840" width="10" style="3"/>
-    <col min="3841" max="3841" width="18.44140625" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="94" style="3" customWidth="1"/>
-    <col min="3843" max="4096" width="10" style="3"/>
-    <col min="4097" max="4097" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="94" style="3" customWidth="1"/>
-    <col min="4099" max="4352" width="10" style="3"/>
-    <col min="4353" max="4353" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="94" style="3" customWidth="1"/>
-    <col min="4355" max="4608" width="10" style="3"/>
-    <col min="4609" max="4609" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="94" style="3" customWidth="1"/>
-    <col min="4611" max="4864" width="10" style="3"/>
-    <col min="4865" max="4865" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="94" style="3" customWidth="1"/>
-    <col min="4867" max="5120" width="10" style="3"/>
-    <col min="5121" max="5121" width="18.44140625" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="94" style="3" customWidth="1"/>
-    <col min="5123" max="5376" width="10" style="3"/>
-    <col min="5377" max="5377" width="18.44140625" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="94" style="3" customWidth="1"/>
-    <col min="5379" max="5632" width="10" style="3"/>
-    <col min="5633" max="5633" width="18.44140625" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="94" style="3" customWidth="1"/>
-    <col min="5635" max="5888" width="10" style="3"/>
-    <col min="5889" max="5889" width="18.44140625" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="94" style="3" customWidth="1"/>
-    <col min="5891" max="6144" width="10" style="3"/>
-    <col min="6145" max="6145" width="18.44140625" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="94" style="3" customWidth="1"/>
-    <col min="6147" max="6400" width="10" style="3"/>
-    <col min="6401" max="6401" width="18.44140625" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="94" style="3" customWidth="1"/>
-    <col min="6403" max="6656" width="10" style="3"/>
-    <col min="6657" max="6657" width="18.44140625" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="94" style="3" customWidth="1"/>
-    <col min="6659" max="6912" width="10" style="3"/>
-    <col min="6913" max="6913" width="18.44140625" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="94" style="3" customWidth="1"/>
-    <col min="6915" max="7168" width="10" style="3"/>
-    <col min="7169" max="7169" width="18.44140625" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="94" style="3" customWidth="1"/>
-    <col min="7171" max="7424" width="10" style="3"/>
-    <col min="7425" max="7425" width="18.44140625" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="94" style="3" customWidth="1"/>
-    <col min="7427" max="7680" width="10" style="3"/>
-    <col min="7681" max="7681" width="18.44140625" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="94" style="3" customWidth="1"/>
-    <col min="7683" max="7936" width="10" style="3"/>
-    <col min="7937" max="7937" width="18.44140625" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="94" style="3" customWidth="1"/>
-    <col min="7939" max="8192" width="10" style="3"/>
-    <col min="8193" max="8193" width="18.44140625" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="94" style="3" customWidth="1"/>
-    <col min="8195" max="8448" width="10" style="3"/>
-    <col min="8449" max="8449" width="18.44140625" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="94" style="3" customWidth="1"/>
-    <col min="8451" max="8704" width="10" style="3"/>
-    <col min="8705" max="8705" width="18.44140625" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="94" style="3" customWidth="1"/>
-    <col min="8707" max="8960" width="10" style="3"/>
-    <col min="8961" max="8961" width="18.44140625" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="94" style="3" customWidth="1"/>
-    <col min="8963" max="9216" width="10" style="3"/>
-    <col min="9217" max="9217" width="18.44140625" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="94" style="3" customWidth="1"/>
-    <col min="9219" max="9472" width="10" style="3"/>
-    <col min="9473" max="9473" width="18.44140625" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="94" style="3" customWidth="1"/>
-    <col min="9475" max="9728" width="10" style="3"/>
-    <col min="9729" max="9729" width="18.44140625" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="94" style="3" customWidth="1"/>
-    <col min="9731" max="9984" width="10" style="3"/>
-    <col min="9985" max="9985" width="18.44140625" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="94" style="3" customWidth="1"/>
-    <col min="9987" max="10240" width="10" style="3"/>
-    <col min="10241" max="10241" width="18.44140625" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="94" style="3" customWidth="1"/>
-    <col min="10243" max="10496" width="10" style="3"/>
-    <col min="10497" max="10497" width="18.44140625" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="94" style="3" customWidth="1"/>
-    <col min="10499" max="10752" width="10" style="3"/>
-    <col min="10753" max="10753" width="18.44140625" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="94" style="3" customWidth="1"/>
-    <col min="10755" max="11008" width="10" style="3"/>
-    <col min="11009" max="11009" width="18.44140625" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="94" style="3" customWidth="1"/>
-    <col min="11011" max="11264" width="10" style="3"/>
-    <col min="11265" max="11265" width="18.44140625" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="94" style="3" customWidth="1"/>
-    <col min="11267" max="11520" width="10" style="3"/>
-    <col min="11521" max="11521" width="18.44140625" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="94" style="3" customWidth="1"/>
-    <col min="11523" max="11776" width="10" style="3"/>
-    <col min="11777" max="11777" width="18.44140625" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="94" style="3" customWidth="1"/>
-    <col min="11779" max="12032" width="10" style="3"/>
-    <col min="12033" max="12033" width="18.44140625" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="94" style="3" customWidth="1"/>
-    <col min="12035" max="12288" width="10" style="3"/>
-    <col min="12289" max="12289" width="18.44140625" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="94" style="3" customWidth="1"/>
-    <col min="12291" max="12544" width="10" style="3"/>
-    <col min="12545" max="12545" width="18.44140625" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="94" style="3" customWidth="1"/>
-    <col min="12547" max="12800" width="10" style="3"/>
-    <col min="12801" max="12801" width="18.44140625" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="94" style="3" customWidth="1"/>
-    <col min="12803" max="13056" width="10" style="3"/>
-    <col min="13057" max="13057" width="18.44140625" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="94" style="3" customWidth="1"/>
-    <col min="13059" max="13312" width="10" style="3"/>
-    <col min="13313" max="13313" width="18.44140625" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="94" style="3" customWidth="1"/>
-    <col min="13315" max="13568" width="10" style="3"/>
-    <col min="13569" max="13569" width="18.44140625" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="94" style="3" customWidth="1"/>
-    <col min="13571" max="13824" width="10" style="3"/>
-    <col min="13825" max="13825" width="18.44140625" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="94" style="3" customWidth="1"/>
-    <col min="13827" max="14080" width="10" style="3"/>
-    <col min="14081" max="14081" width="18.44140625" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="94" style="3" customWidth="1"/>
-    <col min="14083" max="14336" width="10" style="3"/>
-    <col min="14337" max="14337" width="18.44140625" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="94" style="3" customWidth="1"/>
-    <col min="14339" max="14592" width="10" style="3"/>
-    <col min="14593" max="14593" width="18.44140625" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="94" style="3" customWidth="1"/>
-    <col min="14595" max="14848" width="10" style="3"/>
-    <col min="14849" max="14849" width="18.44140625" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="94" style="3" customWidth="1"/>
-    <col min="14851" max="15104" width="10" style="3"/>
-    <col min="15105" max="15105" width="18.44140625" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="94" style="3" customWidth="1"/>
-    <col min="15107" max="15360" width="10" style="3"/>
-    <col min="15361" max="15361" width="18.44140625" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="94" style="3" customWidth="1"/>
-    <col min="15363" max="15616" width="10" style="3"/>
-    <col min="15617" max="15617" width="18.44140625" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="94" style="3" customWidth="1"/>
-    <col min="15619" max="15872" width="10" style="3"/>
-    <col min="15873" max="15873" width="18.44140625" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="94" style="3" customWidth="1"/>
-    <col min="15875" max="16128" width="10" style="3"/>
-    <col min="16129" max="16129" width="18.44140625" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="94" style="3" customWidth="1"/>
-    <col min="16131" max="16384" width="10" style="3"/>
+    <col min="1" max="1" width="18.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="92.26953125" style="3" customWidth="1"/>
+    <col min="3" max="256" width="9.81640625" style="3"/>
+    <col min="257" max="257" width="18.08984375" style="3" customWidth="1"/>
+    <col min="258" max="258" width="92.26953125" style="3" customWidth="1"/>
+    <col min="259" max="512" width="9.81640625" style="3"/>
+    <col min="513" max="513" width="18.08984375" style="3" customWidth="1"/>
+    <col min="514" max="514" width="92.26953125" style="3" customWidth="1"/>
+    <col min="515" max="768" width="9.81640625" style="3"/>
+    <col min="769" max="769" width="18.08984375" style="3" customWidth="1"/>
+    <col min="770" max="770" width="92.26953125" style="3" customWidth="1"/>
+    <col min="771" max="1024" width="9.81640625" style="3"/>
+    <col min="1025" max="1025" width="18.08984375" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="92.26953125" style="3" customWidth="1"/>
+    <col min="1027" max="1280" width="9.81640625" style="3"/>
+    <col min="1281" max="1281" width="18.08984375" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="92.26953125" style="3" customWidth="1"/>
+    <col min="1283" max="1536" width="9.81640625" style="3"/>
+    <col min="1537" max="1537" width="18.08984375" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="92.26953125" style="3" customWidth="1"/>
+    <col min="1539" max="1792" width="9.81640625" style="3"/>
+    <col min="1793" max="1793" width="18.08984375" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="92.26953125" style="3" customWidth="1"/>
+    <col min="1795" max="2048" width="9.81640625" style="3"/>
+    <col min="2049" max="2049" width="18.08984375" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="92.26953125" style="3" customWidth="1"/>
+    <col min="2051" max="2304" width="9.81640625" style="3"/>
+    <col min="2305" max="2305" width="18.08984375" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="92.26953125" style="3" customWidth="1"/>
+    <col min="2307" max="2560" width="9.81640625" style="3"/>
+    <col min="2561" max="2561" width="18.08984375" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="92.26953125" style="3" customWidth="1"/>
+    <col min="2563" max="2816" width="9.81640625" style="3"/>
+    <col min="2817" max="2817" width="18.08984375" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="92.26953125" style="3" customWidth="1"/>
+    <col min="2819" max="3072" width="9.81640625" style="3"/>
+    <col min="3073" max="3073" width="18.08984375" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="92.26953125" style="3" customWidth="1"/>
+    <col min="3075" max="3328" width="9.81640625" style="3"/>
+    <col min="3329" max="3329" width="18.08984375" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="92.26953125" style="3" customWidth="1"/>
+    <col min="3331" max="3584" width="9.81640625" style="3"/>
+    <col min="3585" max="3585" width="18.08984375" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="92.26953125" style="3" customWidth="1"/>
+    <col min="3587" max="3840" width="9.81640625" style="3"/>
+    <col min="3841" max="3841" width="18.08984375" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="92.26953125" style="3" customWidth="1"/>
+    <col min="3843" max="4096" width="9.81640625" style="3"/>
+    <col min="4097" max="4097" width="18.08984375" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="92.26953125" style="3" customWidth="1"/>
+    <col min="4099" max="4352" width="9.81640625" style="3"/>
+    <col min="4353" max="4353" width="18.08984375" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="92.26953125" style="3" customWidth="1"/>
+    <col min="4355" max="4608" width="9.81640625" style="3"/>
+    <col min="4609" max="4609" width="18.08984375" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="92.26953125" style="3" customWidth="1"/>
+    <col min="4611" max="4864" width="9.81640625" style="3"/>
+    <col min="4865" max="4865" width="18.08984375" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="92.26953125" style="3" customWidth="1"/>
+    <col min="4867" max="5120" width="9.81640625" style="3"/>
+    <col min="5121" max="5121" width="18.08984375" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="92.26953125" style="3" customWidth="1"/>
+    <col min="5123" max="5376" width="9.81640625" style="3"/>
+    <col min="5377" max="5377" width="18.08984375" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="92.26953125" style="3" customWidth="1"/>
+    <col min="5379" max="5632" width="9.81640625" style="3"/>
+    <col min="5633" max="5633" width="18.08984375" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="92.26953125" style="3" customWidth="1"/>
+    <col min="5635" max="5888" width="9.81640625" style="3"/>
+    <col min="5889" max="5889" width="18.08984375" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="92.26953125" style="3" customWidth="1"/>
+    <col min="5891" max="6144" width="9.81640625" style="3"/>
+    <col min="6145" max="6145" width="18.08984375" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="92.26953125" style="3" customWidth="1"/>
+    <col min="6147" max="6400" width="9.81640625" style="3"/>
+    <col min="6401" max="6401" width="18.08984375" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="92.26953125" style="3" customWidth="1"/>
+    <col min="6403" max="6656" width="9.81640625" style="3"/>
+    <col min="6657" max="6657" width="18.08984375" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="92.26953125" style="3" customWidth="1"/>
+    <col min="6659" max="6912" width="9.81640625" style="3"/>
+    <col min="6913" max="6913" width="18.08984375" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="92.26953125" style="3" customWidth="1"/>
+    <col min="6915" max="7168" width="9.81640625" style="3"/>
+    <col min="7169" max="7169" width="18.08984375" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="92.26953125" style="3" customWidth="1"/>
+    <col min="7171" max="7424" width="9.81640625" style="3"/>
+    <col min="7425" max="7425" width="18.08984375" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="92.26953125" style="3" customWidth="1"/>
+    <col min="7427" max="7680" width="9.81640625" style="3"/>
+    <col min="7681" max="7681" width="18.08984375" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="92.26953125" style="3" customWidth="1"/>
+    <col min="7683" max="7936" width="9.81640625" style="3"/>
+    <col min="7937" max="7937" width="18.08984375" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="92.26953125" style="3" customWidth="1"/>
+    <col min="7939" max="8192" width="9.81640625" style="3"/>
+    <col min="8193" max="8193" width="18.08984375" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="92.26953125" style="3" customWidth="1"/>
+    <col min="8195" max="8448" width="9.81640625" style="3"/>
+    <col min="8449" max="8449" width="18.08984375" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="92.26953125" style="3" customWidth="1"/>
+    <col min="8451" max="8704" width="9.81640625" style="3"/>
+    <col min="8705" max="8705" width="18.08984375" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="92.26953125" style="3" customWidth="1"/>
+    <col min="8707" max="8960" width="9.81640625" style="3"/>
+    <col min="8961" max="8961" width="18.08984375" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="92.26953125" style="3" customWidth="1"/>
+    <col min="8963" max="9216" width="9.81640625" style="3"/>
+    <col min="9217" max="9217" width="18.08984375" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="92.26953125" style="3" customWidth="1"/>
+    <col min="9219" max="9472" width="9.81640625" style="3"/>
+    <col min="9473" max="9473" width="18.08984375" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="92.26953125" style="3" customWidth="1"/>
+    <col min="9475" max="9728" width="9.81640625" style="3"/>
+    <col min="9729" max="9729" width="18.08984375" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="92.26953125" style="3" customWidth="1"/>
+    <col min="9731" max="9984" width="9.81640625" style="3"/>
+    <col min="9985" max="9985" width="18.08984375" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="92.26953125" style="3" customWidth="1"/>
+    <col min="9987" max="10240" width="9.81640625" style="3"/>
+    <col min="10241" max="10241" width="18.08984375" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="92.26953125" style="3" customWidth="1"/>
+    <col min="10243" max="10496" width="9.81640625" style="3"/>
+    <col min="10497" max="10497" width="18.08984375" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="92.26953125" style="3" customWidth="1"/>
+    <col min="10499" max="10752" width="9.81640625" style="3"/>
+    <col min="10753" max="10753" width="18.08984375" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="92.26953125" style="3" customWidth="1"/>
+    <col min="10755" max="11008" width="9.81640625" style="3"/>
+    <col min="11009" max="11009" width="18.08984375" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="92.26953125" style="3" customWidth="1"/>
+    <col min="11011" max="11264" width="9.81640625" style="3"/>
+    <col min="11265" max="11265" width="18.08984375" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="92.26953125" style="3" customWidth="1"/>
+    <col min="11267" max="11520" width="9.81640625" style="3"/>
+    <col min="11521" max="11521" width="18.08984375" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="92.26953125" style="3" customWidth="1"/>
+    <col min="11523" max="11776" width="9.81640625" style="3"/>
+    <col min="11777" max="11777" width="18.08984375" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="92.26953125" style="3" customWidth="1"/>
+    <col min="11779" max="12032" width="9.81640625" style="3"/>
+    <col min="12033" max="12033" width="18.08984375" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="92.26953125" style="3" customWidth="1"/>
+    <col min="12035" max="12288" width="9.81640625" style="3"/>
+    <col min="12289" max="12289" width="18.08984375" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="92.26953125" style="3" customWidth="1"/>
+    <col min="12291" max="12544" width="9.81640625" style="3"/>
+    <col min="12545" max="12545" width="18.08984375" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="92.26953125" style="3" customWidth="1"/>
+    <col min="12547" max="12800" width="9.81640625" style="3"/>
+    <col min="12801" max="12801" width="18.08984375" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="92.26953125" style="3" customWidth="1"/>
+    <col min="12803" max="13056" width="9.81640625" style="3"/>
+    <col min="13057" max="13057" width="18.08984375" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="92.26953125" style="3" customWidth="1"/>
+    <col min="13059" max="13312" width="9.81640625" style="3"/>
+    <col min="13313" max="13313" width="18.08984375" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="92.26953125" style="3" customWidth="1"/>
+    <col min="13315" max="13568" width="9.81640625" style="3"/>
+    <col min="13569" max="13569" width="18.08984375" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="92.26953125" style="3" customWidth="1"/>
+    <col min="13571" max="13824" width="9.81640625" style="3"/>
+    <col min="13825" max="13825" width="18.08984375" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="92.26953125" style="3" customWidth="1"/>
+    <col min="13827" max="14080" width="9.81640625" style="3"/>
+    <col min="14081" max="14081" width="18.08984375" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="92.26953125" style="3" customWidth="1"/>
+    <col min="14083" max="14336" width="9.81640625" style="3"/>
+    <col min="14337" max="14337" width="18.08984375" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="92.26953125" style="3" customWidth="1"/>
+    <col min="14339" max="14592" width="9.81640625" style="3"/>
+    <col min="14593" max="14593" width="18.08984375" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="92.26953125" style="3" customWidth="1"/>
+    <col min="14595" max="14848" width="9.81640625" style="3"/>
+    <col min="14849" max="14849" width="18.08984375" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="92.26953125" style="3" customWidth="1"/>
+    <col min="14851" max="15104" width="9.81640625" style="3"/>
+    <col min="15105" max="15105" width="18.08984375" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="92.26953125" style="3" customWidth="1"/>
+    <col min="15107" max="15360" width="9.81640625" style="3"/>
+    <col min="15361" max="15361" width="18.08984375" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="92.26953125" style="3" customWidth="1"/>
+    <col min="15363" max="15616" width="9.81640625" style="3"/>
+    <col min="15617" max="15617" width="18.08984375" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="92.26953125" style="3" customWidth="1"/>
+    <col min="15619" max="15872" width="9.81640625" style="3"/>
+    <col min="15873" max="15873" width="18.08984375" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="92.26953125" style="3" customWidth="1"/>
+    <col min="15875" max="16128" width="9.81640625" style="3"/>
+    <col min="16129" max="16129" width="18.08984375" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="92.26953125" style="3" customWidth="1"/>
+    <col min="16131" max="16384" width="9.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13923,14 +13923,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -13957,14 +13957,14 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -13973,21 +13973,21 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
@@ -13999,7 +13999,7 @@
       <c r="B11" s="15"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
@@ -14008,14 +14008,14 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="17" t="s">
         <v>19</v>
@@ -14027,7 +14027,7 @@
       <c r="B15" s="15"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>20</v>
       </c>
@@ -14036,41 +14036,41 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="21"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="22"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="22"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="22"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="23"/>
       <c r="D23" s="4"/>
@@ -14080,7 +14080,7 @@
       <c r="B24" s="24"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>24</v>
       </c>
@@ -14098,7 +14098,7 @@
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="17" t="s">
         <v>27</v>
@@ -14106,7 +14106,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="17" t="s">
         <v>28</v>
@@ -14114,7 +14114,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="17" t="s">
         <v>29</v>
@@ -14122,7 +14122,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="17" t="s">
         <v>30</v>
@@ -14130,7 +14130,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="17" t="s">
         <v>31</v>
@@ -14138,7 +14138,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="17" t="s">
         <v>32</v>
@@ -14146,7 +14146,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="17" t="s">
         <v>33</v>
@@ -14154,7 +14154,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="26"/>
     </row>
-    <row r="34" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="17" t="s">
         <v>34</v>
@@ -14166,7 +14166,7 @@
       <c r="B35" s="24"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>35</v>
       </c>
@@ -14175,32 +14175,32 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="34"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
       <c r="D42" s="4"/>
@@ -14210,7 +14210,7 @@
       <c r="B43" s="36"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>37</v>
       </c>
@@ -14219,34 +14219,34 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33"/>
       <c r="B45" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="37"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="37"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="37"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="37"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="37"/>
       <c r="D50" s="4"/>
@@ -14256,7 +14256,7 @@
       <c r="B51" s="38"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>40</v>
       </c>
@@ -14265,37 +14265,37 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
       <c r="D59" s="4"/>
@@ -14305,7 +14305,7 @@
       <c r="B60" s="36"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>42</v>
       </c>
@@ -14314,34 +14314,34 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="40" t="s">
         <v>44</v>
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="40"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="40"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="40"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="40"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="40"/>
       <c r="D67" s="4"/>
@@ -14351,7 +14351,7 @@
       <c r="B68" s="42"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>45</v>
       </c>
@@ -14360,32 +14360,32 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="40"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="40"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="40"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="40"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="40"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="40"/>
       <c r="D75" s="4"/>
@@ -14395,7 +14395,7 @@
       <c r="B76" s="42"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
         <v>47</v>
       </c>
@@ -14404,53 +14404,53 @@
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="43" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="44" t="s">
         <v>51</v>
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="45"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="45"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="45"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="45"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="45"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="46" t="s">
         <v>52</v>
@@ -14462,7 +14462,7 @@
       <c r="B87" s="48"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
         <v>53</v>
       </c>
@@ -14471,61 +14471,61 @@
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="49" t="s">
         <v>55</v>
       </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="45"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="45"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="45"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="45"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="45"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="45"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="45"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="50"/>
       <c r="C97" s="51"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="52"/>
       <c r="C98" s="51"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="52"/>
       <c r="C99" s="53"/>
@@ -14537,7 +14537,7 @@
       <c r="C100" s="55"/>
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
         <v>56</v>
       </c>
@@ -14546,93 +14546,93 @@
       </c>
       <c r="D101" s="57"/>
     </row>
-    <row r="102" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="27"/>
       <c r="B102" s="58" t="s">
         <v>58</v>
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="27"/>
       <c r="B103" s="58"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="58"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="58"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="27"/>
       <c r="B106" s="58"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="27"/>
       <c r="B107" s="58"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="27"/>
       <c r="B108" s="58"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="27"/>
       <c r="B109" s="59" t="s">
         <v>59</v>
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="27"/>
       <c r="B110" s="59" t="s">
         <v>60</v>
       </c>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="59" t="s">
         <v>61</v>
       </c>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="27"/>
       <c r="B112" s="43" t="s">
         <v>62</v>
       </c>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="27"/>
       <c r="B113" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="27"/>
       <c r="B114" s="60" t="s">
         <v>64</v>
       </c>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
       <c r="B115" s="60" t="s">
         <v>65</v>
       </c>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
       <c r="B116" s="61" t="s">
         <v>66</v>
@@ -14644,7 +14644,7 @@
       <c r="B117" s="48"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="39" t="s">
         <v>67</v>
       </c>
@@ -14653,47 +14653,47 @@
       </c>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="34"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="34"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="34"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="34"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="34"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="34"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="34"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="34"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="17" t="s">
         <v>69</v>
@@ -14705,7 +14705,7 @@
       <c r="B128" s="42"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="39" t="s">
         <v>70</v>
       </c>
@@ -14714,61 +14714,61 @@
       </c>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
       <c r="B131" s="62" t="s">
         <v>73</v>
       </c>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="62"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
       <c r="B133" s="62"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="62"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="39"/>
       <c r="B135" s="62"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="39"/>
       <c r="B136" s="62"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="62"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="39"/>
       <c r="B138" s="62"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="39"/>
       <c r="B139" s="62"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="39"/>
       <c r="B140" s="62"/>
       <c r="D140" s="4"/>
@@ -14778,7 +14778,7 @@
       <c r="B141" s="63"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="64" t="s">
         <v>74</v>
       </c>
@@ -14787,96 +14787,96 @@
       </c>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="65"/>
       <c r="B143" s="34"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="65"/>
       <c r="B144" s="34"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="65"/>
       <c r="B145" s="34"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="65"/>
       <c r="B146" s="34"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="65"/>
       <c r="B147" s="34"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="65"/>
       <c r="B148" s="34"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="65"/>
       <c r="B149" s="34"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="65"/>
       <c r="B150" s="34"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="65"/>
       <c r="B151" s="42"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="65"/>
       <c r="B152" s="46" t="s">
         <v>76</v>
       </c>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="65"/>
       <c r="B153" s="58" t="s">
         <v>77</v>
       </c>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="65"/>
       <c r="B154" s="58"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="65"/>
       <c r="B155" s="58"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="65"/>
       <c r="B156" s="58"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="65"/>
       <c r="B157" s="58"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="65"/>
       <c r="B158" s="58"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="65"/>
       <c r="B159" s="58"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="65"/>
       <c r="B160" s="58"/>
       <c r="D160" s="4"/>
@@ -14886,7 +14886,7 @@
       <c r="B161" s="58"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="20" t="s">
         <v>78</v>
       </c>
@@ -14895,67 +14895,67 @@
       </c>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="34"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16"/>
       <c r="B164" s="34"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="16"/>
       <c r="B165" s="34"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16"/>
       <c r="B166" s="34"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16"/>
       <c r="B167" s="34"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="16"/>
       <c r="B168" s="34"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="16"/>
       <c r="B169" s="34"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
       <c r="B170" s="34"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16"/>
       <c r="B171" s="34"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="34"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="16"/>
       <c r="B173" s="34"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="16"/>
       <c r="B174" s="34"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="18"/>
       <c r="B175" s="34"/>
       <c r="D175" s="4"/>
@@ -14965,74 +14965,74 @@
       <c r="B176" s="11"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B177" s="46"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="16"/>
       <c r="B178" s="34"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16"/>
       <c r="B179" s="34"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
       <c r="B180" s="34"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="16"/>
       <c r="B181" s="34"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16"/>
       <c r="B182" s="34"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16"/>
       <c r="B183" s="34"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16"/>
       <c r="B184" s="34"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="16"/>
       <c r="B185" s="34"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="16"/>
       <c r="B186" s="34"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="16"/>
       <c r="B187" s="34"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16"/>
       <c r="B188" s="34"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="16"/>
       <c r="B189" s="34"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="34"/>
       <c r="D190" s="4"/>
@@ -15042,74 +15042,74 @@
       <c r="B191" s="11"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B192" s="68"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16"/>
       <c r="B193" s="69"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16"/>
       <c r="B194" s="69"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="69"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="16"/>
       <c r="B196" s="69"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="16"/>
       <c r="B197" s="69"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16"/>
       <c r="B198" s="69"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="16"/>
       <c r="B199" s="69"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="16"/>
       <c r="B200" s="69"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="16"/>
       <c r="B201" s="69"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="16"/>
       <c r="B202" s="69"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16"/>
       <c r="B203" s="69"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="B204" s="69"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="18"/>
       <c r="B205" s="70"/>
       <c r="D205" s="4"/>
@@ -15124,7 +15124,7 @@
       <c r="B207" s="72"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
         <v>82</v>
       </c>
@@ -15133,57 +15133,57 @@
       </c>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="16"/>
       <c r="B209" s="34"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="16"/>
       <c r="B210" s="34"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16"/>
       <c r="B211" s="34"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="16"/>
       <c r="B212" s="34"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="16"/>
       <c r="B213" s="34"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="16"/>
       <c r="B214" s="34"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="16"/>
       <c r="B215" s="34"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="16"/>
       <c r="B216" s="34"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="16"/>
       <c r="B217" s="34"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="16"/>
       <c r="B218" s="34"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="16"/>
       <c r="B219" s="34"/>
       <c r="D219" s="4"/>
@@ -15193,7 +15193,7 @@
       <c r="B220" s="34"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="18"/>
       <c r="B221" s="34"/>
       <c r="D221" s="4"/>
@@ -15208,7 +15208,7 @@
       <c r="B223" s="72"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="20" t="s">
         <v>84</v>
       </c>
@@ -15217,52 +15217,52 @@
       </c>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16"/>
       <c r="B225" s="34"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="16"/>
       <c r="B226" s="34"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="16"/>
       <c r="B227" s="34"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="16"/>
       <c r="B228" s="34"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="16"/>
       <c r="B229" s="34"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="16"/>
       <c r="B230" s="34"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="16"/>
       <c r="B231" s="34"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="16"/>
       <c r="B232" s="34"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="16"/>
       <c r="B233" s="34"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="16"/>
       <c r="B234" s="34"/>
       <c r="D234" s="4"/>
@@ -15272,12 +15272,12 @@
       <c r="B235" s="34"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="16"/>
       <c r="B236" s="34"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="18"/>
       <c r="B237" s="34"/>
       <c r="D237" s="4"/>
@@ -15287,41 +15287,41 @@
       <c r="B238" s="11"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="41"/>
       <c r="B239" s="73"/>
     </row>
-    <row r="240" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="46"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="16"/>
       <c r="B241" s="34"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="16"/>
       <c r="B242" s="34"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="16"/>
       <c r="B243" s="34"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="16"/>
       <c r="B244" s="34"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="16"/>
       <c r="B245" s="34"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="18"/>
       <c r="B246" s="34"/>
       <c r="D246" s="4"/>
@@ -15331,11 +15331,11 @@
       <c r="B247" s="11"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="41"/>
       <c r="B248" s="73"/>
     </row>
-    <row r="249" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="74" t="s">
         <v>86</v>
       </c>
@@ -15343,69 +15343,69 @@
         <v>87</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="76"/>
       <c r="B250" s="77" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="41">
     <mergeCell ref="A224:A237"/>
@@ -15452,7 +15452,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{26BE94AB-292B-411E-9624-C18718A26214}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{B5D98AD3-434D-403E-B1CC-4BA03C6B9A8E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
@@ -15475,15 +15475,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>5090160</xdr:colOff>
+                <xdr:colOff>5086350</xdr:colOff>
                 <xdr:row>94</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>5242560</xdr:colOff>
+                <xdr:colOff>5238750</xdr:colOff>
                 <xdr:row>95</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15500,15 +15500,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>426720</xdr:colOff>
+                <xdr:colOff>431800</xdr:colOff>
                 <xdr:row>94</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>579120</xdr:colOff>
+                <xdr:colOff>584200</xdr:colOff>
                 <xdr:row>95</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15525,15 +15525,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2880360</xdr:colOff>
+                <xdr:colOff>2876550</xdr:colOff>
                 <xdr:row>94</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3032760</xdr:colOff>
+                <xdr:colOff>3028950</xdr:colOff>
                 <xdr:row>95</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15552,7 +15552,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>3505200</xdr:colOff>
                 <xdr:row>160</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
@@ -15575,15 +15575,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>579120</xdr:colOff>
+                <xdr:colOff>584200</xdr:colOff>
                 <xdr:row>160</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
+                <xdr:colOff>736600</xdr:colOff>
                 <xdr:row>160</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15600,13 +15600,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3566160</xdr:colOff>
+                <xdr:colOff>3562350</xdr:colOff>
                 <xdr:row>129</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3718560</xdr:colOff>
+                <xdr:colOff>3714750</xdr:colOff>
                 <xdr:row>130</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -15621,13 +15621,13 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1061" r:id="rId13" name="CheckBox86">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>2133600</xdr:colOff>
                 <xdr:row>129</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
@@ -15645,18 +15645,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId15" name="CheckBox85">
-          <controlPr defaultSize="0" altText="" r:id="rId5">
+        <control shapeId="1060" r:id="rId14" name="CheckBox85">
+          <controlPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>213360</xdr:colOff>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>129</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
+                <xdr:colOff>361950</xdr:colOff>
                 <xdr:row>129</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -15665,7 +15665,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId15" name="CheckBox85"/>
+        <control shapeId="1060" r:id="rId14" name="CheckBox85"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -15677,7 +15677,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>2095500</xdr:colOff>
                 <xdr:row>126</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
@@ -15696,19 +15696,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1058" r:id="rId17" name="CheckBox83">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>126</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>127</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15721,17 +15721,17 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1057" r:id="rId18" name="CheckBox82">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>4747260</xdr:colOff>
+                <xdr:colOff>4743450</xdr:colOff>
                 <xdr:row>109</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>4899660</xdr:colOff>
+                <xdr:colOff>4895850</xdr:colOff>
                 <xdr:row>110</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -15750,15 +15750,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1242060</xdr:colOff>
+                <xdr:colOff>1238250</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1394460</xdr:colOff>
+                <xdr:colOff>1390650</xdr:colOff>
                 <xdr:row>109</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15775,15 +15775,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2537460</xdr:colOff>
+                <xdr:colOff>2533650</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2689860</xdr:colOff>
+                <xdr:colOff>2686050</xdr:colOff>
                 <xdr:row>109</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15808,7 +15808,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>3467100</xdr:colOff>
                 <xdr:row>111</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15821,19 +15821,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1053" r:id="rId22" name="CheckBox76">
-          <controlPr defaultSize="0" altText="" r:id="rId10">
+          <controlPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1760220</xdr:colOff>
+                <xdr:colOff>1765300</xdr:colOff>
                 <xdr:row>110</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1912620</xdr:colOff>
+                <xdr:colOff>1917700</xdr:colOff>
                 <xdr:row>111</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15846,19 +15846,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1052" r:id="rId23" name="CheckBox75">
-          <controlPr defaultSize="0" altText="" r:id="rId10">
+          <controlPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2788920</xdr:colOff>
+                <xdr:colOff>2794000</xdr:colOff>
                 <xdr:row>109</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2941320</xdr:colOff>
+                <xdr:colOff>2946400</xdr:colOff>
                 <xdr:row>110</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15875,13 +15875,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1242060</xdr:colOff>
+                <xdr:colOff>1238250</xdr:colOff>
                 <xdr:row>109</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1394460</xdr:colOff>
+                <xdr:colOff>1390650</xdr:colOff>
                 <xdr:row>110</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -15896,19 +15896,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1050" r:id="rId25" name="CheckBox73">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>4114800</xdr:colOff>
                 <xdr:row>107</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>4267200</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15925,15 +15925,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2270760</xdr:colOff>
+                <xdr:colOff>2266950</xdr:colOff>
                 <xdr:row>107</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2423160</xdr:colOff>
+                <xdr:colOff>2419350</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15950,15 +15950,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>426720</xdr:colOff>
+                <xdr:colOff>431800</xdr:colOff>
                 <xdr:row>107</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>579120</xdr:colOff>
+                <xdr:colOff>584200</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15983,7 +15983,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>3657600</xdr:colOff>
                 <xdr:row>84</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -15996,19 +15996,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1046" r:id="rId29" name="CheckBox33">
-          <controlPr defaultSize="0" altText="" r:id="rId10">
+          <controlPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>449580</xdr:colOff>
+                <xdr:colOff>450850</xdr:colOff>
                 <xdr:row>83</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>601980</xdr:colOff>
+                <xdr:colOff>603250</xdr:colOff>
                 <xdr:row>84</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16021,13 +16021,13 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1045" r:id="rId30" name="CheckBox32">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>77</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
@@ -16050,15 +16050,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2164080</xdr:colOff>
+                <xdr:colOff>2165350</xdr:colOff>
                 <xdr:row>63</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2316480</xdr:colOff>
+                <xdr:colOff>2317750</xdr:colOff>
                 <xdr:row>64</xdr:row>
-                <xdr:rowOff>99060</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16075,13 +16075,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>251460</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>63</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>403860</xdr:colOff>
+                <xdr:colOff>400050</xdr:colOff>
                 <xdr:row>64</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
@@ -16096,19 +16096,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1042" r:id="rId33" name="CheckBox64">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>3924300</xdr:colOff>
                 <xdr:row>57</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>4076700</xdr:colOff>
                 <xdr:row>58</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16121,19 +16121,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1041" r:id="rId34" name="CheckBox63">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>2514600</xdr:colOff>
                 <xdr:row>57</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>2667000</xdr:colOff>
                 <xdr:row>58</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16158,7 +16158,7 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
                 <xdr:row>58</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16171,19 +16171,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1039" r:id="rId36" name="CheckBox24">
-          <controlPr defaultSize="0" altText="" r:id="rId10">
+          <controlPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>5608320</xdr:colOff>
+                <xdr:colOff>5613400</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>5760720</xdr:colOff>
+                <xdr:colOff>5765800</xdr:colOff>
                 <xdr:row>50</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16200,15 +16200,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3055620</xdr:colOff>
+                <xdr:colOff>3060700</xdr:colOff>
                 <xdr:row>49</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3208020</xdr:colOff>
+                <xdr:colOff>3213100</xdr:colOff>
                 <xdr:row>50</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16221,13 +16221,13 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1037" r:id="rId38" name="CheckBox22">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>838200</xdr:colOff>
                 <xdr:row>49</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
@@ -16250,13 +16250,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>4747260</xdr:colOff>
+                <xdr:colOff>4743450</xdr:colOff>
                 <xdr:row>41</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>4899660</xdr:colOff>
+                <xdr:colOff>4895850</xdr:colOff>
                 <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -16271,17 +16271,17 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1035" r:id="rId40" name="CheckBox61">
-          <controlPr defaultSize="0" altText="" r:id="rId5">
+          <controlPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3398520</xdr:colOff>
+                <xdr:colOff>3403600</xdr:colOff>
                 <xdr:row>41</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3550920</xdr:colOff>
+                <xdr:colOff>3556000</xdr:colOff>
                 <xdr:row>41</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -16300,15 +16300,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2011680</xdr:colOff>
+                <xdr:colOff>2012950</xdr:colOff>
                 <xdr:row>41</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2164080</xdr:colOff>
+                <xdr:colOff>2165350</xdr:colOff>
                 <xdr:row>42</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16321,17 +16321,17 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1033" r:id="rId42" name="CheckBox59">
-          <controlPr defaultSize="0" altText="" r:id="rId5">
+          <controlPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>579120</xdr:colOff>
+                <xdr:colOff>584200</xdr:colOff>
                 <xdr:row>41</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
+                <xdr:colOff>736600</xdr:colOff>
                 <xdr:row>41</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -16350,15 +16350,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1973580</xdr:colOff>
+                <xdr:colOff>1974850</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2125980</xdr:colOff>
+                <xdr:colOff>2127250</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16375,13 +16375,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3459480</xdr:colOff>
+                <xdr:colOff>3460750</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>3611880</xdr:colOff>
+                <xdr:colOff>3613150</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -16400,15 +16400,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1973580</xdr:colOff>
+                <xdr:colOff>1974850</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2125980</xdr:colOff>
+                <xdr:colOff>2127250</xdr:colOff>
                 <xdr:row>34</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16421,17 +16421,17 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1029" r:id="rId46" name="CheckBox8">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>556260</xdr:colOff>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>708660</xdr:colOff>
+                <xdr:colOff>704850</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -16446,19 +16446,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1028" r:id="rId47" name="CheckBox12">
-          <controlPr defaultSize="0" altText="" r:id="rId14">
+          <controlPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>579120</xdr:colOff>
+                <xdr:colOff>584200</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
+                <xdr:colOff>736600</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -16475,13 +16475,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>4251960</xdr:colOff>
+                <xdr:colOff>4248150</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>4404360</xdr:colOff>
+                <xdr:colOff>4400550</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -16500,13 +16500,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2308860</xdr:colOff>
+                <xdr:colOff>2305050</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>2461260</xdr:colOff>
+                <xdr:colOff>2457450</xdr:colOff>
                 <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -16525,15 +16525,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>579120</xdr:colOff>
+                <xdr:colOff>584200</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
+                <xdr:colOff>736600</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
